--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2079720.05068208</v>
+        <v>2187871.143596374</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9697971.363007391</v>
+        <v>9704014.373594647</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>281.6158438075119</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>54.50461040250087</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.66728913266074</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -865,10 +867,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>46.48480100297213</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>214.583042323356</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.779181506667</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>6.146182334060375</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>61.41459162918812</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>294.4137524181868</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>97.91652990141327</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.9661640434836</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>96.81482713277335</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1534,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462192</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1576,19 +1578,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>131.4244133395551</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>177.1006680594869</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>111.5361117049702</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2050,10 +2052,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>61.6215214068367</v>
       </c>
       <c r="T19" t="n">
-        <v>97.54185816719604</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2135,10 +2137,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>107.317805417867</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2482,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>95.81917536083792</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>239.3074490814213</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>66.25628701154714</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>90.14863908058098</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>93.59472601529512</v>
       </c>
     </row>
     <row r="32">
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>35.63623515385353</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,16 +3246,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>146.2834074964122</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,19 +3480,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>219.4517041866519</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.07327741456266</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3661,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>129.1078928223853</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>121.3986907513285</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3740,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>91.8999605662476</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>79.9081607862897</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1634.158487398107</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="C2" t="n">
-        <v>1634.158487398107</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
@@ -4331,7 +4333,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2024.297819373919</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1634.158487398107</v>
+        <v>1589.195369430331</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4403,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4412,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>551.6025748766954</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>846.306131908167</v>
       </c>
       <c r="M3" t="n">
-        <v>1001.276695922949</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.0080784229705</v>
+        <v>494.0245808582381</v>
       </c>
       <c r="C4" t="n">
-        <v>770.0080784229705</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106347</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282416</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F4" t="n">
         <v>325.0883979303312</v>
@@ -4513,25 +4515,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1486.908369142633</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1486.908369142633</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387894</v>
+        <v>1232.223880936746</v>
       </c>
       <c r="W4" t="n">
-        <v>859.5709967387894</v>
+        <v>942.8067108997856</v>
       </c>
       <c r="X4" t="n">
-        <v>859.5709967387894</v>
+        <v>714.8171600017682</v>
       </c>
       <c r="Y4" t="n">
-        <v>859.5709967387894</v>
+        <v>494.0245808582381</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1593.528088680779</v>
+        <v>1146.918698535759</v>
       </c>
       <c r="C5" t="n">
-        <v>1224.565571740367</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="D5" t="n">
-        <v>1224.565571740367</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E5" t="n">
-        <v>838.7773191421229</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>427.7914143525153</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2353.59368700598</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>2353.59368700598</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>1980.127928744901</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y5" t="n">
-        <v>1980.127928744901</v>
+        <v>1363.669246337129</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4699,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.2580926322059</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="C7" t="n">
-        <v>352.2580926322059</v>
+        <v>411.3114606023159</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>261.1948211899802</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>113.2817276075871</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800312</v>
+        <v>113.2817276075871</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>113.2817276075871</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4753,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.349301773071</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671838</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W7" t="n">
-        <v>580.2476435302233</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="X7" t="n">
-        <v>352.2580926322059</v>
+        <v>580.2476435302228</v>
       </c>
       <c r="Y7" t="n">
-        <v>352.2580926322059</v>
+        <v>580.2476435302228</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1195.924014069019</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1195.924014069019</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>837.6583154622685</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3116.409567377262</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>3116.409567377262</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>3116.409567377262</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W8" t="n">
-        <v>2763.640912107148</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X8" t="n">
-        <v>2763.640912107148</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>1582.523854133141</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>403.1511359853714</v>
+        <v>514.036292340028</v>
       </c>
       <c r="C10" t="n">
-        <v>234.2149530574645</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574645</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040962</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V10" t="n">
-        <v>1191.821308835075</v>
+        <v>1213.091478105246</v>
       </c>
       <c r="W10" t="n">
-        <v>902.4041387981144</v>
+        <v>923.6743080682851</v>
       </c>
       <c r="X10" t="n">
-        <v>674.4145879000971</v>
+        <v>695.6847571702677</v>
       </c>
       <c r="Y10" t="n">
-        <v>453.622008756567</v>
+        <v>695.6847571702677</v>
       </c>
     </row>
     <row r="11">
@@ -5021,22 +5023,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5045,16 +5047,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5121,19 +5123,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>542.9134462654469</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>542.9134462654469</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>783.5579673960085</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>614.6217844681016</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557659</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557659</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578555</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578555</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2247.165447166446</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1958.090220510643</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1703.405732304756</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W13" t="n">
-        <v>1413.988562267796</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1185.999011369778</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>965.2064322262482</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5358,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1211.329899359456</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5601,16 +5603,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>634.927936255316</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2317.673418815656</v>
       </c>
       <c r="T19" t="n">
-        <v>2098.535416025753</v>
+        <v>2098.071953838597</v>
       </c>
       <c r="U19" t="n">
-        <v>1809.460189369951</v>
+        <v>1808.996727182795</v>
       </c>
       <c r="V19" t="n">
-        <v>1554.775701164064</v>
+        <v>1554.312238976908</v>
       </c>
       <c r="W19" t="n">
-        <v>1265.358531127103</v>
+        <v>1264.895068939947</v>
       </c>
       <c r="X19" t="n">
-        <v>1037.368980229086</v>
+        <v>1036.90551804193</v>
       </c>
       <c r="Y19" t="n">
-        <v>816.5764010855557</v>
+        <v>816.1129388984</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5750,10 +5752,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5952,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>409.1360811687896</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>904.4616873845483</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2880.538088716435</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C25" t="n">
-        <v>2711.601905788528</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D25" t="n">
-        <v>2561.485266376193</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>2561.485266376193</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>4344.145568486872</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>4055.07034183107</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>3800.385853625183</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>3510.968683588222</v>
+        <v>1259.022373354577</v>
       </c>
       <c r="X25" t="n">
-        <v>3282.979132690205</v>
+        <v>1031.03282245656</v>
       </c>
       <c r="Y25" t="n">
-        <v>3062.186553546675</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2532.719182723414</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>2023.916610740955</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V28" t="n">
-        <v>1769.232122535068</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.814952498107</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,13 +6545,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6707,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6774,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511906</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>2410.966886455156</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T34" t="n">
-        <v>2191.365421478097</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U34" t="n">
-        <v>1902.290194822295</v>
+        <v>4182.156460765733</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.605706616408</v>
+        <v>4034.395443092589</v>
       </c>
       <c r="W34" t="n">
-        <v>1358.188536579448</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="X34" t="n">
-        <v>1130.19898568143</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="35">
@@ -6929,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3173.601046153951</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153951</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741615</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159222</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076438</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420636</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.199968177789</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279772</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>3173.601046153951</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7166,10 +7168,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>3473.939263755757</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>4101.537227310363</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>4653.44695754965</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>763.7541388327643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D40" t="n">
-        <v>613.6374994204285</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E40" t="n">
-        <v>465.7244058380354</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>465.7244058380354</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>298.5283065529154</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7403,58 +7405,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.5007694647277</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C43" t="n">
-        <v>631.5645865368208</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D43" t="n">
-        <v>481.447947124485</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E43" t="n">
-        <v>333.5348535420919</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F43" t="n">
-        <v>186.6449060441816</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>4543.07213472545</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>4323.470669748392</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>4034.395443092589</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>4034.395443092589</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949674</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8060,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>255.842170046095</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>45.44676101130858</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>186.5911984019048</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515141</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8538,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>45.76488231024575</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23422,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>85.98103698773318</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>75.03697526434109</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.29586847696709</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>119.4047645948079</v>
       </c>
       <c r="T19" t="n">
-        <v>119.8635921600922</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>41.29766760034533</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>121.5862749664503</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>47.21554925516972</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>151.1491633157411</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>196.0358353086632</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>124.9899273367997</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>145.3900508477911</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>105.8542358274158</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>67.07129414993909</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>165.5113759375321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>18.89602209489536</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>73.62417772602124</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>101.1181252153549</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>848277.1977260262</v>
+        <v>854813.3179772041</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973921</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>834034.6482973921</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>834034.6482973921</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973921</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516052</v>
+      </c>
+      <c r="C2" t="n">
+        <v>595255.2831516052</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516049</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516054</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516054</v>
-      </c>
       <c r="E2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752542</v>
-      </c>
       <c r="G2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752549</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="O2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752547</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>86694.40323307097</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719772</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719709</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719772</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719721</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719709</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719732</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-745548.1364109038</v>
+        <v>-745548.1364109035</v>
       </c>
       <c r="C6" t="n">
-        <v>369203.6471650163</v>
+        <v>369203.6471650162</v>
       </c>
       <c r="D6" t="n">
-        <v>207999.7989168036</v>
+        <v>369203.6471650159</v>
       </c>
       <c r="E6" t="n">
-        <v>151138.9246822721</v>
+        <v>-30934.05513491808</v>
       </c>
       <c r="F6" t="n">
-        <v>476551.3864896274</v>
+        <v>476551.3864896276</v>
       </c>
       <c r="G6" t="n">
-        <v>476551.3864896274</v>
+        <v>476551.3864896276</v>
       </c>
       <c r="H6" t="n">
-        <v>476551.3864896275</v>
+        <v>476551.3864896277</v>
       </c>
       <c r="I6" t="n">
         <v>476551.3864896274</v>
       </c>
       <c r="J6" t="n">
-        <v>308946.2086796453</v>
+        <v>308946.208679645</v>
       </c>
       <c r="K6" t="n">
-        <v>476551.3864896281</v>
+        <v>476551.3864896276</v>
       </c>
       <c r="L6" t="n">
-        <v>428257.416481437</v>
+        <v>476551.3864896275</v>
       </c>
       <c r="M6" t="n">
-        <v>391496.3585541158</v>
+        <v>343944.0927607008</v>
       </c>
       <c r="N6" t="n">
-        <v>476551.3864896277</v>
+        <v>476551.3864896272</v>
       </c>
       <c r="O6" t="n">
-        <v>476551.3864896277</v>
+        <v>476551.3864896275</v>
       </c>
       <c r="P6" t="n">
-        <v>476551.3864896279</v>
+        <v>476551.3864896276</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>88.11525687095718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>331.7333282535527</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.16469104927656</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>174.2638949942398</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>168.1507993401245</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>38.76852126628694</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27776,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>142.469290684152</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>85.83691752594075</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>87.51661765407499</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>106.0014402382069</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>129.8658161384537</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>155.3228161910546</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31279,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,13 +31843,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>440.316328560036</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,7 +31858,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32078,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32321,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,28 +32554,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>305.187676947251</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>675.4898072958217</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32807,7 +32809,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,25 +33031,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>166.2270851128133</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>579.5299594447137</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,19 +33505,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33737,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>602.8420149078241</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33989,7 +33991,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>285.8867128925984</v>
+        <v>134.72848811719</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,16 +34216,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>675.952017818248</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34445,31 +34447,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>533.0479862785273</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,16 +34780,16 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>442.4296662895798</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>412.3780932933491</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
@@ -34796,10 +34798,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>553.5225306839452</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750464</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>381.1895643063687</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35491,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,7 +35506,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35726,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36370,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>167.346237972892</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>533.3557733738033</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36455,7 +36457,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>440.9755796648395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>471.5003028244908</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37637,7 +37639,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>151.9123054782682</v>
+        <v>0.754080702859717</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>533.3557733738036</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>399.073578864197</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2187871.143596374</v>
+        <v>2183733.986346223</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>53.43995086960427</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>54.50461040250087</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>46.48480100297213</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>214.583042323356</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>165.2261218488715</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>61.41459162918812</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>99.06392343821568</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>294.4137524181868</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>163.1366525438119</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>50.9807481254279</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>96.81482713277335</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>76.95889114479584</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>177.1006680594869</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>20.88994825141581</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458224</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>61.6215214068367</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>107.317805417867</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>239.3074490814213</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>90.14863908058098</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.59472601529512</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>146.2834074964122</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,16 +3480,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>219.4517041866519</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>129.1078928223853</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>79.9081607862897</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>41.55695577161151</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1202.59552936621</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="C2" t="n">
-        <v>1202.59552936621</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>116.8908811564458</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>105.2265349211387</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>105.2265349211387</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,7 +4360,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4369,13 +4369,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1589.195369430331</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>551.6025748766954</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>846.306131908167</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687206</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.0245808582381</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>325.0883979303312</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>325.0883979303312</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>325.0883979303312</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1486.908369142633</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1486.908369142633</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="V4" t="n">
-        <v>1232.223880936746</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="W4" t="n">
-        <v>942.8067108997856</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="X4" t="n">
-        <v>714.8171600017682</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>494.0245808582381</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1146.918698535759</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C5" t="n">
-        <v>777.9561815953474</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>777.9561815953474</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,13 +4585,13 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926626</v>
@@ -4600,19 +4600,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2270.745048352009</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>1939.682161008438</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312941</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.808578312941</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="Y5" t="n">
-        <v>1363.669246337129</v>
+        <v>1586.913505738324</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100998</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.770244284151</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>580.2476435302228</v>
+        <v>682.9724752679349</v>
       </c>
       <c r="C7" t="n">
-        <v>411.3114606023159</v>
+        <v>514.036292340028</v>
       </c>
       <c r="D7" t="n">
-        <v>261.1948211899802</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>113.2817276075871</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>113.2817276075871</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>113.2817276075871</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.34930177307</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671834</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W7" t="n">
-        <v>580.2476435302228</v>
+        <v>1313.403070139722</v>
       </c>
       <c r="X7" t="n">
-        <v>580.2476435302228</v>
+        <v>1085.413519241705</v>
       </c>
       <c r="Y7" t="n">
-        <v>580.2476435302228</v>
+        <v>864.6209400981746</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1195.924014069019</v>
+        <v>438.8191504929254</v>
       </c>
       <c r="C8" t="n">
-        <v>1195.924014069019</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="D8" t="n">
-        <v>837.6583154622685</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2706867570294</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674218</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
         <v>795.755353087292</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2272.855623407624</v>
       </c>
       <c r="V8" t="n">
-        <v>2308.758267664335</v>
+        <v>1941.792736064053</v>
       </c>
       <c r="W8" t="n">
-        <v>1955.989612394221</v>
+        <v>1589.024080793939</v>
       </c>
       <c r="X8" t="n">
-        <v>1582.523854133141</v>
+        <v>1215.558322532859</v>
       </c>
       <c r="Y8" t="n">
-        <v>1582.523854133141</v>
+        <v>825.4189905570472</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4871,31 +4871,31 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341571</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.486495938516</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4922,7 +4922,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.036292340028</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>514.036292340028</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1213.091478105246</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>923.6743080682851</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>695.6847571702677</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>695.6847571702677</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5035,10 +5035,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5047,16 +5047,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1028.490320362745</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>859.5541374348384</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>709.4374980225026</v>
       </c>
       <c r="E13" t="n">
         <v>631.7012443408906</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1210.138785192985</v>
       </c>
     </row>
     <row r="14">
@@ -5278,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5366,16 +5366,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>197.0043242297712</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>197.0043242297712</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>197.0043242297712</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5478,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="17">
@@ -5506,37 +5506,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5603,13 +5603,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>634.4644740681603</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2317.673418815656</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2098.071953838597</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1808.996727182795</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1554.312238976908</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1264.895068939947</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1036.90551804193</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>816.1129388984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5843,16 +5843,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1259.022373354577</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>1031.03282245656</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6244,31 +6244,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2532.719182723414</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6551,19 +6551,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>640.1060525954244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>821.7545174256642</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6697,34 +6697,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421535</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>4182.156460765733</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>4034.395443092589</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3744.978273055629</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055629</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7028,13 +7028,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1501.108204237296</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>2876.560776129205</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>3473.939263755757</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>4101.537227310363</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>4653.44695754965</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>383.4415877881669</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>383.4415877881669</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961525</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.154262550759</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4543.07213472545</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4323.470669748392</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>4034.395443092589</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>4034.395443092589</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>3744.978273055629</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1336.167399417937</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>277.5052172074016</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>135.7933860495997</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>255.842170046095</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>138.939397511105</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>186.5911984019048</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,22 +8531,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>45.76488231024575</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>-1.077743684667804e-12</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>69.47507150177333</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>75.03697526434109</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>119.4047645948081</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>119.4047645948079</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>41.29766760034533</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>47.21554925516972</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>124.9899273367997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>105.8542358274158</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>67.07129414993909</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>38.13892827624255</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>101.1181252153549</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>39.70888054695403</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834034.6482973921</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>834034.6482973921</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>834034.6482973921</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752548</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>585181.2847752542</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752541</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,7 +26438,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719632</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
@@ -26447,7 +26447,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719627</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
@@ -26456,7 +26456,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719635</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26524,46 +26524,46 @@
         <v>-745548.1364109035</v>
       </c>
       <c r="C6" t="n">
-        <v>369203.6471650162</v>
+        <v>369203.6471650161</v>
       </c>
       <c r="D6" t="n">
-        <v>369203.6471650159</v>
+        <v>369203.6471650163</v>
       </c>
       <c r="E6" t="n">
-        <v>-30934.05513491808</v>
+        <v>-31281.43438927518</v>
       </c>
       <c r="F6" t="n">
-        <v>476551.3864896276</v>
+        <v>476204.0072352704</v>
       </c>
       <c r="G6" t="n">
-        <v>476551.3864896276</v>
+        <v>476204.0072352708</v>
       </c>
       <c r="H6" t="n">
-        <v>476551.3864896277</v>
+        <v>476204.0072352706</v>
       </c>
       <c r="I6" t="n">
-        <v>476551.3864896274</v>
+        <v>476204.0072352706</v>
       </c>
       <c r="J6" t="n">
-        <v>308946.208679645</v>
+        <v>308598.8294252881</v>
       </c>
       <c r="K6" t="n">
-        <v>476551.3864896276</v>
+        <v>476204.007235271</v>
       </c>
       <c r="L6" t="n">
-        <v>476551.3864896275</v>
+        <v>476204.0072352705</v>
       </c>
       <c r="M6" t="n">
-        <v>343944.0927607008</v>
+        <v>343596.7135063438</v>
       </c>
       <c r="N6" t="n">
-        <v>476551.3864896272</v>
+        <v>476204.0072352704</v>
       </c>
       <c r="O6" t="n">
-        <v>476551.3864896275</v>
+        <v>476204.0072352709</v>
       </c>
       <c r="P6" t="n">
-        <v>476551.3864896276</v>
+        <v>476204.0072352704</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000389</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>12.26996180286619</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>331.7333282535527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>174.2638949942398</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>141.3684566739774</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>168.1507993401245</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>85.81912827959056</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>85.83691752594075</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27830,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>187.4590748983753</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>87.51661765407499</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>87.90859758465015</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>115.3258519193763</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>155.3228161910546</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31843,28 +31843,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32086,19 +32086,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32323,16 +32323,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>193.1175412796309</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>675.4898072958217</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>166.2270851128133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>134.72848811719</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>675.952017818248</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>533.0479862785273</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>442.4296662895798</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>505.8707297931456</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>553.5225306839452</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>381.1895643063687</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>61.77582919629761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>533.3557733738033</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>374.5201816365647</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>0.754080702859717</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>533.3557733738036</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>399.073578864197</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2183733.986346223</v>
+        <v>2185494.516649008</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.43995086960427</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>79.77884995491904</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -837,7 +837,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>75.32177372736409</v>
       </c>
       <c r="U4" t="n">
-        <v>144.8586974472232</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>33.17487821174158</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>165.2261218488715</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>99.06392343821568</v>
+        <v>20.85410062871337</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>286.588867942607</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>163.1366525438119</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.9807481254279</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6635413881177</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>76.95889114479584</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.702514956955</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>38.95525409458224</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>40.96105405076426</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>91.89996056624841</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>81.27859867330054</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605711666</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712593</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>1.799772605716619</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>527.8767859460534</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="C2" t="n">
-        <v>527.8767859460534</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D2" t="n">
-        <v>527.8767859460534</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>527.8767859460534</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>116.8908811564458</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>105.2265349211387</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>105.2265349211387</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2481.754631475995</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2273.008990081819</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2019.427929345999</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460534</v>
+        <v>1688.365042002428</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>812.8918298888575</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>662.7751904765217</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1560.363520349887</v>
       </c>
       <c r="U4" t="n">
-        <v>1490.124203461141</v>
+        <v>1271.245182853725</v>
       </c>
       <c r="V4" t="n">
-        <v>1490.124203461141</v>
+        <v>1271.245182853725</v>
       </c>
       <c r="W4" t="n">
-        <v>1490.124203461141</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>981.8280128167644</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>981.8280128167644</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1586.913505738324</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="C5" t="n">
         <v>1217.950988797912</v>
@@ -4555,25 +4555,25 @@
         <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331018</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2528.829350408497</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2528.829350408497</v>
       </c>
       <c r="U5" t="n">
-        <v>2270.745048352009</v>
+        <v>2275.248289672677</v>
       </c>
       <c r="V5" t="n">
-        <v>1939.682161008438</v>
+        <v>1944.185402329106</v>
       </c>
       <c r="W5" t="n">
-        <v>1586.913505738324</v>
+        <v>1591.416747058992</v>
       </c>
       <c r="X5" t="n">
-        <v>1586.913505738324</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="Y5" t="n">
-        <v>1586.913505738324</v>
+        <v>1217.950988797912</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>682.9724752679349</v>
+        <v>666.9516006271326</v>
       </c>
       <c r="C7" t="n">
-        <v>514.036292340028</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4758,19 +4758,19 @@
         <v>1413.467639269233</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269233</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V7" t="n">
-        <v>1413.467639269233</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W7" t="n">
-        <v>1313.403070139722</v>
+        <v>848.6000654573724</v>
       </c>
       <c r="X7" t="n">
-        <v>1085.413519241705</v>
+        <v>848.6000654573724</v>
       </c>
       <c r="Y7" t="n">
-        <v>864.6209400981746</v>
+        <v>848.6000654573724</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>438.8191504929254</v>
+        <v>728.3028554854577</v>
       </c>
       <c r="C8" t="n">
-        <v>69.85663355251364</v>
+        <v>359.340338545046</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251364</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4825,31 +4825,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2272.855623407624</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>1941.792736064053</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1589.024080793939</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>1215.558322532859</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y8" t="n">
-        <v>825.4189905570472</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431134</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312198</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1255.41469198592</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1028.490320362745</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>859.5541374348384</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>709.4374980225026</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1430.931364336515</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1210.138785192985</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,7 +5275,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5284,16 +5284,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,19 +5354,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5478,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1104.935454102179</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>884.1428749586493</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,37 +5506,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5652,19 +5652,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5731,40 +5731,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,64 +6214,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>464.5180363231797</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6280888252693</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6691,40 +6691,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6922,25 +6922,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6955,19 +6955,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270397</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>343.0994656851783</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>138.939397511105</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>138.9393975111051</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-1.077743684667804e-12</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>69.47507150177333</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>186.7544012944549</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>245.5619442858267</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>125.5054897610399</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>84.24553961896831</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4949402405122</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038532</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>146.8157004124957</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973921</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973921</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752549</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752545</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26438,16 +26438,16 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719632</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719721</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719627</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
@@ -26456,7 +26456,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719635</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-745548.1364109035</v>
       </c>
       <c r="C6" t="n">
-        <v>369203.6471650161</v>
+        <v>369203.647165016</v>
       </c>
       <c r="D6" t="n">
-        <v>369203.6471650163</v>
+        <v>369203.6471650159</v>
       </c>
       <c r="E6" t="n">
-        <v>-31281.43438927518</v>
+        <v>-30968.79306035377</v>
       </c>
       <c r="F6" t="n">
-        <v>476204.0072352704</v>
+        <v>476516.6485641924</v>
       </c>
       <c r="G6" t="n">
-        <v>476204.0072352708</v>
+        <v>476516.648564192</v>
       </c>
       <c r="H6" t="n">
-        <v>476204.0072352706</v>
+        <v>476516.6485641918</v>
       </c>
       <c r="I6" t="n">
-        <v>476204.0072352706</v>
+        <v>476516.648564192</v>
       </c>
       <c r="J6" t="n">
-        <v>308598.8294252881</v>
+        <v>308911.4707542095</v>
       </c>
       <c r="K6" t="n">
-        <v>476204.007235271</v>
+        <v>476516.6485641918</v>
       </c>
       <c r="L6" t="n">
-        <v>476204.0072352705</v>
+        <v>476516.648564192</v>
       </c>
       <c r="M6" t="n">
-        <v>343596.7135063438</v>
+        <v>343909.3548352653</v>
       </c>
       <c r="N6" t="n">
-        <v>476204.0072352704</v>
+        <v>476516.6485641918</v>
       </c>
       <c r="O6" t="n">
-        <v>476204.0072352709</v>
+        <v>476516.648564192</v>
       </c>
       <c r="P6" t="n">
-        <v>476204.0072352704</v>
+        <v>476516.6485641919</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.584832100039</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>12.26996180286619</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>43.67336544387533</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>145.4269222698479</v>
       </c>
       <c r="U4" t="n">
-        <v>141.3684566739774</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>90.27733718705278</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>85.81912827959056</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27830,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>187.4590748983753</v>
+        <v>265.6688977078776</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>68.09417367807595</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>87.90859758465015</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193763</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28067,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>10.56361273308295</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30176,7 +30176,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,7 +31864,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,13 +32083,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>397.620397467641</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>505.8707297931456</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>388.6189266346374</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010404</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
